--- a/ARCHIVE/deployment/Omaha_Cal_Info_GA03FLMA_00003.xlsx
+++ b/ARCHIVE/deployment/Omaha_Cal_Info_GA03FLMA_00003.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarzio\Desktop\cal sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lgarzio/Documents/repo/lgarzio/ooi-integration-fork/asset-management/ARCHIVE/deployment/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24576" windowHeight="9696"/>
+    <workbookView xWindow="-100" yWindow="460" windowWidth="38400" windowHeight="21060"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -22,8 +22,11 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="127">
   <si>
     <t>Ref Des</t>
   </si>
@@ -419,12 +422,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="32" x14ac:knownFonts="1">
     <font>
@@ -1057,9 +1061,6 @@
     <xf numFmtId="11" fontId="31" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1073,6 +1074,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="176">
     <cellStyle name="Comma 2" xfId="63"/>
@@ -1328,9 +1332,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1363,9 +1367,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1572,29 +1576,29 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" style="15" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="4"/>
+    <col min="11" max="11" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5" style="4" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="4" customWidth="1"/>
+    <col min="14" max="14" width="12.5" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
         <v>68</v>
       </c>
@@ -1632,7 +1636,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -1645,12 +1649,24 @@
       <c r="D2" s="25">
         <v>3</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
+      <c r="E2" s="26">
+        <v>42673</v>
+      </c>
+      <c r="F2" s="27">
+        <v>0.97013888888888899</v>
+      </c>
       <c r="G2" s="26"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="25"/>
+      <c r="H2" s="52">
+        <f>-(42+(29.5277/60))</f>
+        <v>-42.492128333333334</v>
+      </c>
+      <c r="I2" s="52">
+        <f>-(42+(52.8116/60))</f>
+        <v>-42.880193333333331</v>
+      </c>
+      <c r="J2" s="25">
+        <v>5166</v>
+      </c>
       <c r="K2" s="25" t="s">
         <v>95</v>
       </c>
@@ -1664,7 +1680,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E3" s="21"/>
       <c r="F3" s="22"/>
       <c r="G3" s="21"/>
@@ -1674,37 +1690,32 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q397"/>
+  <dimension ref="A1:K397"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A348" workbookViewId="0">
+      <selection activeCell="H386" sqref="H386"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="27" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="2"/>
+    <col min="9" max="9" width="8.83203125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="24" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="24" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1733,7 +1744,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>50</v>
       </c>
@@ -1746,7 +1757,7 @@
       <c r="D2" s="17">
         <v>3</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="51" t="s">
         <v>110</v>
       </c>
       <c r="F2" s="33">
@@ -1761,20 +1772,11 @@
       <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="L2" s="2">
-        <f t="shared" ref="L2:L38" si="0">MATCH(A2,M:M,0)</f>
-        <v>3</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q2" s="2">
-        <f t="shared" ref="Q2:Q19" si="1">MATCH(M2,A:A,0)</f>
-        <v>371</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J2" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
         <v>50</v>
       </c>
@@ -1787,7 +1789,7 @@
       <c r="D3" s="17">
         <v>3</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="51" t="s">
         <v>110</v>
       </c>
       <c r="F3" s="33">
@@ -1802,19 +1804,8 @@
       <c r="I3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q3" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>50</v>
       </c>
@@ -1827,7 +1818,7 @@
       <c r="D4" s="17">
         <v>3</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="51" t="s">
         <v>110</v>
       </c>
       <c r="F4" s="33">
@@ -1840,19 +1831,8 @@
         <v>1.11E-2</v>
       </c>
       <c r="I4" s="36"/>
-      <c r="L4" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q4" s="2">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>50</v>
       </c>
@@ -1865,7 +1845,7 @@
       <c r="D5" s="17">
         <v>3</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="51" t="s">
         <v>110</v>
       </c>
       <c r="F5" s="33">
@@ -1877,19 +1857,8 @@
       <c r="H5" s="31">
         <v>58</v>
       </c>
-      <c r="L5" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5" s="2">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>50</v>
       </c>
@@ -1902,7 +1871,7 @@
       <c r="D6" s="17">
         <v>3</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="51" t="s">
         <v>110</v>
       </c>
       <c r="F6" s="33">
@@ -1914,19 +1883,8 @@
       <c r="H6" s="31">
         <v>7.8399999999999997E-2</v>
       </c>
-      <c r="L6" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q6" s="2">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
         <v>50</v>
       </c>
@@ -1939,7 +1897,7 @@
       <c r="D7" s="17">
         <v>3</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="51" t="s">
         <v>110</v>
       </c>
       <c r="F7" s="33">
@@ -1951,19 +1909,8 @@
       <c r="H7" s="31">
         <v>50</v>
       </c>
-      <c r="L7" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q7" s="2">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
         <v>50</v>
       </c>
@@ -1976,7 +1923,7 @@
       <c r="D8" s="17">
         <v>3</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="51" t="s">
         <v>110</v>
       </c>
       <c r="F8" s="33">
@@ -1991,19 +1938,8 @@
       <c r="I8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q8" s="2">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
         <v>50</v>
       </c>
@@ -2016,7 +1952,7 @@
       <c r="D9" s="17">
         <v>3</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="51" t="s">
         <v>110</v>
       </c>
       <c r="F9" s="33">
@@ -2031,19 +1967,8 @@
       <c r="I9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q9" s="2">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
         <v>50</v>
       </c>
@@ -2056,7 +1981,7 @@
       <c r="D10" s="17">
         <v>3</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="51" t="s">
         <v>110</v>
       </c>
       <c r="F10" s="33">
@@ -2071,19 +1996,8 @@
       <c r="I10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L10" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="2">
-        <f t="shared" si="1"/>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
         <v>50</v>
       </c>
@@ -2096,7 +2010,7 @@
       <c r="D11" s="17">
         <v>3</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="51" t="s">
         <v>110</v>
       </c>
       <c r="F11" s="33">
@@ -2111,19 +2025,8 @@
       <c r="I11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q11" s="2">
-        <f t="shared" si="1"/>
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="18"/>
@@ -2131,19 +2034,8 @@
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
-      <c r="L12" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q12" s="2">
-        <f t="shared" si="1"/>
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>53</v>
       </c>
@@ -2171,20 +2063,11 @@
       <c r="I13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="48"/>
-      <c r="L13" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q13" s="2">
-        <f t="shared" si="1"/>
-        <v>203</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J13" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
         <v>53</v>
       </c>
@@ -2209,19 +2092,8 @@
       <c r="H14" s="31">
         <v>2284.1</v>
       </c>
-      <c r="L14" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q14" s="2">
-        <f t="shared" si="1"/>
-        <v>231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
         <v>53</v>
       </c>
@@ -2246,19 +2118,8 @@
       <c r="H15" s="31">
         <v>94.1</v>
       </c>
-      <c r="L15" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q15" s="2">
-        <f t="shared" si="1"/>
-        <v>259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
         <v>53</v>
       </c>
@@ -2283,19 +2144,8 @@
       <c r="H16" s="31">
         <v>38676.5</v>
       </c>
-      <c r="L16" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q16" s="2">
-        <f t="shared" si="1"/>
-        <v>287</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
         <v>53</v>
       </c>
@@ -2317,22 +2167,11 @@
       <c r="G17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="48">
+      <c r="H17" s="47">
         <v>1</v>
       </c>
-      <c r="L17" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q17" s="2">
-        <f t="shared" si="1"/>
-        <v>315</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
         <v>53</v>
       </c>
@@ -2354,22 +2193,11 @@
       <c r="G18" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="48">
+      <c r="H18" s="47">
         <v>0</v>
       </c>
-      <c r="L18" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q18" s="2">
-        <f t="shared" si="1"/>
-        <v>343</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
         <v>53</v>
       </c>
@@ -2397,19 +2225,8 @@
       <c r="I19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L19" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q19" s="2">
-        <f t="shared" si="1"/>
-        <v>372</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="18"/>
@@ -2417,12 +2234,8 @@
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
-      <c r="L20" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
         <v>47</v>
       </c>
@@ -2444,17 +2257,15 @@
       <c r="G21" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="49"/>
+      <c r="H21" s="48"/>
       <c r="I21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="48"/>
-      <c r="L21" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J21" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
         <v>47</v>
       </c>
@@ -2476,16 +2287,12 @@
       <c r="G22" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="49"/>
+      <c r="H22" s="48"/>
       <c r="I22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L22" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
         <v>47</v>
       </c>
@@ -2510,12 +2317,8 @@
       <c r="H23" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="L23" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="18"/>
@@ -2524,12 +2327,8 @@
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
       <c r="H24" s="30"/>
-      <c r="L24" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>51</v>
       </c>
@@ -2551,17 +2350,15 @@
       <c r="G25" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="49"/>
+      <c r="H25" s="48"/>
       <c r="I25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J25" s="48"/>
-      <c r="L25" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J25" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
         <v>51</v>
       </c>
@@ -2583,13 +2380,9 @@
       <c r="G26" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="49"/>
-      <c r="L26" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H26" s="48"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
         <v>51</v>
       </c>
@@ -2611,13 +2404,9 @@
       <c r="G27" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="49"/>
-      <c r="L27" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H27" s="48"/>
+    </row>
+    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="s">
         <v>51</v>
       </c>
@@ -2639,13 +2428,9 @@
       <c r="G28" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="49"/>
-      <c r="L28" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H28" s="48"/>
+    </row>
+    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="28" t="s">
         <v>51</v>
       </c>
@@ -2667,16 +2452,12 @@
       <c r="G29" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="50"/>
+      <c r="H29" s="49"/>
       <c r="I29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L29" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="28" t="s">
         <v>51</v>
       </c>
@@ -2704,12 +2485,8 @@
       <c r="I30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L30" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
         <v>51</v>
       </c>
@@ -2737,12 +2514,8 @@
       <c r="I31" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L31" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
         <v>51</v>
       </c>
@@ -2770,12 +2543,8 @@
       <c r="I32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L32" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="28" t="s">
         <v>51</v>
       </c>
@@ -2803,12 +2572,8 @@
       <c r="I33" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L33" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="18"/>
@@ -2817,12 +2582,8 @@
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
       <c r="H34" s="30"/>
-      <c r="L34" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
         <v>54</v>
       </c>
@@ -2850,14 +2611,12 @@
       <c r="I35" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J35" s="47"/>
+      <c r="J35" s="29">
+        <v>30</v>
+      </c>
       <c r="K35" s="29"/>
-      <c r="L35" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
         <v>54</v>
       </c>
@@ -2879,16 +2638,12 @@
       <c r="G36" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H36" s="51"/>
+      <c r="H36" s="50"/>
       <c r="I36" s="29"/>
       <c r="J36" s="29"/>
       <c r="K36" s="29"/>
-      <c r="L36" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
         <v>54</v>
       </c>
@@ -2910,16 +2665,12 @@
       <c r="G37" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H37" s="51"/>
+      <c r="H37" s="50"/>
       <c r="I37" s="29"/>
       <c r="J37" s="29"/>
       <c r="K37" s="29"/>
-      <c r="L37" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="28" t="s">
         <v>54</v>
       </c>
@@ -2947,12 +2698,8 @@
       <c r="I38" s="29"/>
       <c r="J38" s="29"/>
       <c r="K38" s="29"/>
-      <c r="L38" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="28" t="s">
         <v>54</v>
       </c>
@@ -2980,7 +2727,7 @@
       <c r="I39" s="30"/>
       <c r="K39" s="29"/>
     </row>
-    <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
         <v>54</v>
       </c>
@@ -3008,7 +2755,7 @@
       <c r="I40" s="42"/>
       <c r="K40" s="29"/>
     </row>
-    <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="28" t="s">
         <v>54</v>
       </c>
@@ -3036,7 +2783,7 @@
       <c r="I41" s="42"/>
       <c r="K41" s="29"/>
     </row>
-    <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="28" t="s">
         <v>54</v>
       </c>
@@ -3064,7 +2811,7 @@
       <c r="I42" s="42"/>
       <c r="K42" s="29"/>
     </row>
-    <row r="43" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="28" t="s">
         <v>54</v>
       </c>
@@ -3092,7 +2839,7 @@
       <c r="I43" s="42"/>
       <c r="K43" s="29"/>
     </row>
-    <row r="44" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="28" t="s">
         <v>54</v>
       </c>
@@ -3120,7 +2867,7 @@
       <c r="I44" s="42"/>
       <c r="K44" s="29"/>
     </row>
-    <row r="45" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="28" t="s">
         <v>54</v>
       </c>
@@ -3148,7 +2895,7 @@
       <c r="I45" s="42"/>
       <c r="K45" s="29"/>
     </row>
-    <row r="46" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="28" t="s">
         <v>54</v>
       </c>
@@ -3176,7 +2923,7 @@
       <c r="I46" s="42"/>
       <c r="K46" s="29"/>
     </row>
-    <row r="47" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="28" t="s">
         <v>54</v>
       </c>
@@ -3204,7 +2951,7 @@
       <c r="I47" s="42"/>
       <c r="K47" s="29"/>
     </row>
-    <row r="48" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="28" t="s">
         <v>54</v>
       </c>
@@ -3232,7 +2979,7 @@
       <c r="I48" s="42"/>
       <c r="K48" s="29"/>
     </row>
-    <row r="49" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="28" t="s">
         <v>54</v>
       </c>
@@ -3260,7 +3007,7 @@
       <c r="I49" s="42"/>
       <c r="K49" s="29"/>
     </row>
-    <row r="50" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="28" t="s">
         <v>54</v>
       </c>
@@ -3288,7 +3035,7 @@
       <c r="I50" s="42"/>
       <c r="K50" s="29"/>
     </row>
-    <row r="51" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="28" t="s">
         <v>54</v>
       </c>
@@ -3316,7 +3063,7 @@
       <c r="I51" s="42"/>
       <c r="K51" s="29"/>
     </row>
-    <row r="52" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="28" t="s">
         <v>54</v>
       </c>
@@ -3344,7 +3091,7 @@
       <c r="I52" s="42"/>
       <c r="K52" s="29"/>
     </row>
-    <row r="53" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="28" t="s">
         <v>54</v>
       </c>
@@ -3372,7 +3119,7 @@
       <c r="I53" s="42"/>
       <c r="K53" s="29"/>
     </row>
-    <row r="54" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="28" t="s">
         <v>54</v>
       </c>
@@ -3400,7 +3147,7 @@
       <c r="I54" s="42"/>
       <c r="K54" s="29"/>
     </row>
-    <row r="55" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="28" t="s">
         <v>54</v>
       </c>
@@ -3428,7 +3175,7 @@
       <c r="I55" s="42"/>
       <c r="K55" s="29"/>
     </row>
-    <row r="56" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="28" t="s">
         <v>54</v>
       </c>
@@ -3456,7 +3203,7 @@
       <c r="I56" s="42"/>
       <c r="K56" s="29"/>
     </row>
-    <row r="57" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="28" t="s">
         <v>54</v>
       </c>
@@ -3484,7 +3231,7 @@
       <c r="I57" s="42"/>
       <c r="K57" s="29"/>
     </row>
-    <row r="58" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="28" t="s">
         <v>54</v>
       </c>
@@ -3512,7 +3259,7 @@
       <c r="I58" s="42"/>
       <c r="K58" s="29"/>
     </row>
-    <row r="59" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="28" t="s">
         <v>54</v>
       </c>
@@ -3540,7 +3287,7 @@
       <c r="I59" s="42"/>
       <c r="K59" s="29"/>
     </row>
-    <row r="60" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="28" t="s">
         <v>54</v>
       </c>
@@ -3568,7 +3315,7 @@
       <c r="I60" s="42"/>
       <c r="K60" s="29"/>
     </row>
-    <row r="61" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="28" t="s">
         <v>54</v>
       </c>
@@ -3596,7 +3343,7 @@
       <c r="I61" s="42"/>
       <c r="K61" s="29"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="17"/>
       <c r="B62" s="17"/>
       <c r="C62" s="18"/>
@@ -3604,12 +3351,8 @@
       <c r="E62" s="17"/>
       <c r="F62" s="29"/>
       <c r="K62" s="29"/>
-      <c r="L62" s="2" t="e">
-        <f>MATCH(A62,M:M,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="17" t="s">
         <v>52</v>
       </c>
@@ -3637,16 +3380,12 @@
       <c r="I63" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J63" s="47">
-        <v>39</v>
+      <c r="J63" s="29">
+        <v>40</v>
       </c>
       <c r="K63" s="29"/>
-      <c r="L63" s="2">
-        <f>MATCH(A63,M:M,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="28" t="s">
         <v>52</v>
       </c>
@@ -3668,16 +3407,12 @@
       <c r="G64" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H64" s="51"/>
+      <c r="H64" s="50"/>
       <c r="I64" s="29"/>
       <c r="J64" s="29"/>
       <c r="K64" s="29"/>
-      <c r="L64" s="2">
-        <f>MATCH(A64,M:M,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="28" t="s">
         <v>52</v>
       </c>
@@ -3699,16 +3434,12 @@
       <c r="G65" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H65" s="51"/>
+      <c r="H65" s="50"/>
       <c r="I65" s="29"/>
       <c r="J65" s="29"/>
       <c r="K65" s="29"/>
-      <c r="L65" s="2">
-        <f>MATCH(A65,M:M,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="28" t="s">
         <v>52</v>
       </c>
@@ -3736,12 +3467,8 @@
       <c r="I66" s="29"/>
       <c r="J66" s="29"/>
       <c r="K66" s="29"/>
-      <c r="L66" s="2">
-        <f>MATCH(A66,M:M,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="28" t="s">
         <v>52</v>
       </c>
@@ -3769,7 +3496,7 @@
       <c r="I67" s="30"/>
       <c r="K67" s="29"/>
     </row>
-    <row r="68" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="28" t="s">
         <v>52</v>
       </c>
@@ -3797,7 +3524,7 @@
       <c r="I68" s="42"/>
       <c r="K68" s="29"/>
     </row>
-    <row r="69" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="28" t="s">
         <v>52</v>
       </c>
@@ -3825,7 +3552,7 @@
       <c r="I69" s="42"/>
       <c r="K69" s="29"/>
     </row>
-    <row r="70" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="28" t="s">
         <v>52</v>
       </c>
@@ -3853,7 +3580,7 @@
       <c r="I70" s="42"/>
       <c r="K70" s="29"/>
     </row>
-    <row r="71" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="28" t="s">
         <v>52</v>
       </c>
@@ -3881,7 +3608,7 @@
       <c r="I71" s="42"/>
       <c r="K71" s="29"/>
     </row>
-    <row r="72" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="28" t="s">
         <v>52</v>
       </c>
@@ -3909,7 +3636,7 @@
       <c r="I72" s="42"/>
       <c r="K72" s="29"/>
     </row>
-    <row r="73" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="28" t="s">
         <v>52</v>
       </c>
@@ -3937,7 +3664,7 @@
       <c r="I73" s="42"/>
       <c r="K73" s="29"/>
     </row>
-    <row r="74" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="28" t="s">
         <v>52</v>
       </c>
@@ -3965,7 +3692,7 @@
       <c r="I74" s="42"/>
       <c r="K74" s="29"/>
     </row>
-    <row r="75" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="28" t="s">
         <v>52</v>
       </c>
@@ -3993,7 +3720,7 @@
       <c r="I75" s="42"/>
       <c r="K75" s="29"/>
     </row>
-    <row r="76" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="28" t="s">
         <v>52</v>
       </c>
@@ -4021,7 +3748,7 @@
       <c r="I76" s="42"/>
       <c r="K76" s="29"/>
     </row>
-    <row r="77" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="28" t="s">
         <v>52</v>
       </c>
@@ -4049,7 +3776,7 @@
       <c r="I77" s="42"/>
       <c r="K77" s="29"/>
     </row>
-    <row r="78" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="28" t="s">
         <v>52</v>
       </c>
@@ -4077,7 +3804,7 @@
       <c r="I78" s="42"/>
       <c r="K78" s="29"/>
     </row>
-    <row r="79" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="28" t="s">
         <v>52</v>
       </c>
@@ -4105,7 +3832,7 @@
       <c r="I79" s="42"/>
       <c r="K79" s="29"/>
     </row>
-    <row r="80" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="28" t="s">
         <v>52</v>
       </c>
@@ -4133,7 +3860,7 @@
       <c r="I80" s="42"/>
       <c r="K80" s="29"/>
     </row>
-    <row r="81" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="28" t="s">
         <v>52</v>
       </c>
@@ -4161,7 +3888,7 @@
       <c r="I81" s="42"/>
       <c r="K81" s="29"/>
     </row>
-    <row r="82" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="28" t="s">
         <v>52</v>
       </c>
@@ -4189,7 +3916,7 @@
       <c r="I82" s="42"/>
       <c r="K82" s="29"/>
     </row>
-    <row r="83" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="28" t="s">
         <v>52</v>
       </c>
@@ -4217,7 +3944,7 @@
       <c r="I83" s="42"/>
       <c r="K83" s="29"/>
     </row>
-    <row r="84" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="28" t="s">
         <v>52</v>
       </c>
@@ -4245,7 +3972,7 @@
       <c r="I84" s="42"/>
       <c r="K84" s="29"/>
     </row>
-    <row r="85" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="28" t="s">
         <v>52</v>
       </c>
@@ -4273,7 +4000,7 @@
       <c r="I85" s="42"/>
       <c r="K85" s="29"/>
     </row>
-    <row r="86" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="28" t="s">
         <v>52</v>
       </c>
@@ -4301,7 +4028,7 @@
       <c r="I86" s="42"/>
       <c r="K86" s="29"/>
     </row>
-    <row r="87" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="28" t="s">
         <v>52</v>
       </c>
@@ -4329,7 +4056,7 @@
       <c r="I87" s="42"/>
       <c r="K87" s="29"/>
     </row>
-    <row r="88" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="28" t="s">
         <v>52</v>
       </c>
@@ -4357,7 +4084,7 @@
       <c r="I88" s="42"/>
       <c r="K88" s="29"/>
     </row>
-    <row r="89" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="28" t="s">
         <v>52</v>
       </c>
@@ -4385,7 +4112,7 @@
       <c r="I89" s="42"/>
       <c r="K89" s="29"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="17"/>
       <c r="B90" s="17"/>
       <c r="C90" s="18"/>
@@ -4393,12 +4120,8 @@
       <c r="E90" s="17"/>
       <c r="F90" s="29"/>
       <c r="K90" s="29"/>
-      <c r="L90" s="2" t="e">
-        <f>MATCH(A90,M:M,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="17" t="s">
         <v>55</v>
       </c>
@@ -4426,16 +4149,12 @@
       <c r="I91" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J91" s="47">
-        <v>59</v>
+      <c r="J91" s="29">
+        <v>60</v>
       </c>
       <c r="K91" s="29"/>
-      <c r="L91" s="2">
-        <f>MATCH(A91,M:M,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="28" t="s">
         <v>55</v>
       </c>
@@ -4457,16 +4176,12 @@
       <c r="G92" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H92" s="51"/>
+      <c r="H92" s="50"/>
       <c r="I92" s="29"/>
       <c r="J92" s="29"/>
       <c r="K92" s="29"/>
-      <c r="L92" s="2">
-        <f>MATCH(A92,M:M,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="28" t="s">
         <v>55</v>
       </c>
@@ -4488,16 +4203,12 @@
       <c r="G93" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H93" s="51"/>
+      <c r="H93" s="50"/>
       <c r="I93" s="29"/>
       <c r="J93" s="29"/>
       <c r="K93" s="29"/>
-      <c r="L93" s="2">
-        <f>MATCH(A93,M:M,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="28" t="s">
         <v>55</v>
       </c>
@@ -4525,12 +4236,8 @@
       <c r="I94" s="29"/>
       <c r="J94" s="29"/>
       <c r="K94" s="29"/>
-      <c r="L94" s="2">
-        <f>MATCH(A94,M:M,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="28" t="s">
         <v>55</v>
       </c>
@@ -4558,7 +4265,7 @@
       <c r="I95" s="30"/>
       <c r="K95" s="29"/>
     </row>
-    <row r="96" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="28" t="s">
         <v>55</v>
       </c>
@@ -4586,7 +4293,7 @@
       <c r="I96" s="42"/>
       <c r="K96" s="29"/>
     </row>
-    <row r="97" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="28" t="s">
         <v>55</v>
       </c>
@@ -4614,7 +4321,7 @@
       <c r="I97" s="42"/>
       <c r="K97" s="29"/>
     </row>
-    <row r="98" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="28" t="s">
         <v>55</v>
       </c>
@@ -4642,7 +4349,7 @@
       <c r="I98" s="42"/>
       <c r="K98" s="29"/>
     </row>
-    <row r="99" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="28" t="s">
         <v>55</v>
       </c>
@@ -4670,7 +4377,7 @@
       <c r="I99" s="42"/>
       <c r="K99" s="29"/>
     </row>
-    <row r="100" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="28" t="s">
         <v>55</v>
       </c>
@@ -4698,7 +4405,7 @@
       <c r="I100" s="42"/>
       <c r="K100" s="29"/>
     </row>
-    <row r="101" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="28" t="s">
         <v>55</v>
       </c>
@@ -4726,7 +4433,7 @@
       <c r="I101" s="42"/>
       <c r="K101" s="29"/>
     </row>
-    <row r="102" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="28" t="s">
         <v>55</v>
       </c>
@@ -4754,7 +4461,7 @@
       <c r="I102" s="42"/>
       <c r="K102" s="29"/>
     </row>
-    <row r="103" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="28" t="s">
         <v>55</v>
       </c>
@@ -4782,7 +4489,7 @@
       <c r="I103" s="42"/>
       <c r="K103" s="29"/>
     </row>
-    <row r="104" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="28" t="s">
         <v>55</v>
       </c>
@@ -4810,7 +4517,7 @@
       <c r="I104" s="42"/>
       <c r="K104" s="29"/>
     </row>
-    <row r="105" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="28" t="s">
         <v>55</v>
       </c>
@@ -4838,7 +4545,7 @@
       <c r="I105" s="42"/>
       <c r="K105" s="29"/>
     </row>
-    <row r="106" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="28" t="s">
         <v>55</v>
       </c>
@@ -4866,7 +4573,7 @@
       <c r="I106" s="42"/>
       <c r="K106" s="29"/>
     </row>
-    <row r="107" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="28" t="s">
         <v>55</v>
       </c>
@@ -4894,7 +4601,7 @@
       <c r="I107" s="42"/>
       <c r="K107" s="29"/>
     </row>
-    <row r="108" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="28" t="s">
         <v>55</v>
       </c>
@@ -4922,7 +4629,7 @@
       <c r="I108" s="42"/>
       <c r="K108" s="29"/>
     </row>
-    <row r="109" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="28" t="s">
         <v>55</v>
       </c>
@@ -4950,7 +4657,7 @@
       <c r="I109" s="42"/>
       <c r="K109" s="29"/>
     </row>
-    <row r="110" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="28" t="s">
         <v>55</v>
       </c>
@@ -4978,7 +4685,7 @@
       <c r="I110" s="42"/>
       <c r="K110" s="29"/>
     </row>
-    <row r="111" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="28" t="s">
         <v>55</v>
       </c>
@@ -5006,7 +4713,7 @@
       <c r="I111" s="42"/>
       <c r="K111" s="29"/>
     </row>
-    <row r="112" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="28" t="s">
         <v>55</v>
       </c>
@@ -5034,7 +4741,7 @@
       <c r="I112" s="42"/>
       <c r="K112" s="29"/>
     </row>
-    <row r="113" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="28" t="s">
         <v>55</v>
       </c>
@@ -5062,7 +4769,7 @@
       <c r="I113" s="42"/>
       <c r="K113" s="29"/>
     </row>
-    <row r="114" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="28" t="s">
         <v>55</v>
       </c>
@@ -5090,7 +4797,7 @@
       <c r="I114" s="42"/>
       <c r="K114" s="29"/>
     </row>
-    <row r="115" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="28" t="s">
         <v>55</v>
       </c>
@@ -5118,7 +4825,7 @@
       <c r="I115" s="42"/>
       <c r="K115" s="29"/>
     </row>
-    <row r="116" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="28" t="s">
         <v>55</v>
       </c>
@@ -5146,7 +4853,7 @@
       <c r="I116" s="42"/>
       <c r="K116" s="29"/>
     </row>
-    <row r="117" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="28" t="s">
         <v>55</v>
       </c>
@@ -5174,7 +4881,7 @@
       <c r="I117" s="42"/>
       <c r="K117" s="29"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="17"/>
       <c r="B118" s="17"/>
       <c r="C118" s="18"/>
@@ -5182,12 +4889,8 @@
       <c r="E118" s="17"/>
       <c r="F118" s="29"/>
       <c r="K118" s="29"/>
-      <c r="L118" s="2" t="e">
-        <f>MATCH(A118,M:M,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
         <v>56</v>
       </c>
@@ -5215,14 +4918,12 @@
       <c r="I119" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J119" s="47"/>
+      <c r="J119" s="29">
+        <v>90</v>
+      </c>
       <c r="K119" s="29"/>
-      <c r="L119" s="2">
-        <f>MATCH(A119,M:M,0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="28" t="s">
         <v>56</v>
       </c>
@@ -5244,16 +4945,12 @@
       <c r="G120" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H120" s="51"/>
+      <c r="H120" s="50"/>
       <c r="I120" s="29"/>
       <c r="J120" s="29"/>
       <c r="K120" s="29"/>
-      <c r="L120" s="2">
-        <f>MATCH(A120,M:M,0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="28" t="s">
         <v>56</v>
       </c>
@@ -5275,16 +4972,12 @@
       <c r="G121" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H121" s="51"/>
+      <c r="H121" s="50"/>
       <c r="I121" s="29"/>
       <c r="J121" s="29"/>
       <c r="K121" s="29"/>
-      <c r="L121" s="2">
-        <f>MATCH(A121,M:M,0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="28" t="s">
         <v>56</v>
       </c>
@@ -5312,12 +5005,8 @@
       <c r="I122" s="29"/>
       <c r="J122" s="29"/>
       <c r="K122" s="29"/>
-      <c r="L122" s="2">
-        <f>MATCH(A122,M:M,0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="28" t="s">
         <v>56</v>
       </c>
@@ -5345,7 +5034,7 @@
       <c r="I123" s="30"/>
       <c r="K123" s="29"/>
     </row>
-    <row r="124" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="28" t="s">
         <v>56</v>
       </c>
@@ -5373,7 +5062,7 @@
       <c r="I124" s="42"/>
       <c r="K124" s="29"/>
     </row>
-    <row r="125" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="28" t="s">
         <v>56</v>
       </c>
@@ -5401,7 +5090,7 @@
       <c r="I125" s="42"/>
       <c r="K125" s="29"/>
     </row>
-    <row r="126" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="28" t="s">
         <v>56</v>
       </c>
@@ -5429,7 +5118,7 @@
       <c r="I126" s="42"/>
       <c r="K126" s="29"/>
     </row>
-    <row r="127" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="28" t="s">
         <v>56</v>
       </c>
@@ -5457,7 +5146,7 @@
       <c r="I127" s="42"/>
       <c r="K127" s="29"/>
     </row>
-    <row r="128" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="28" t="s">
         <v>56</v>
       </c>
@@ -5485,7 +5174,7 @@
       <c r="I128" s="42"/>
       <c r="K128" s="29"/>
     </row>
-    <row r="129" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="28" t="s">
         <v>56</v>
       </c>
@@ -5513,7 +5202,7 @@
       <c r="I129" s="42"/>
       <c r="K129" s="29"/>
     </row>
-    <row r="130" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="28" t="s">
         <v>56</v>
       </c>
@@ -5541,7 +5230,7 @@
       <c r="I130" s="42"/>
       <c r="K130" s="29"/>
     </row>
-    <row r="131" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="28" t="s">
         <v>56</v>
       </c>
@@ -5569,7 +5258,7 @@
       <c r="I131" s="42"/>
       <c r="K131" s="29"/>
     </row>
-    <row r="132" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="28" t="s">
         <v>56</v>
       </c>
@@ -5597,7 +5286,7 @@
       <c r="I132" s="42"/>
       <c r="K132" s="29"/>
     </row>
-    <row r="133" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="28" t="s">
         <v>56</v>
       </c>
@@ -5625,7 +5314,7 @@
       <c r="I133" s="42"/>
       <c r="K133" s="29"/>
     </row>
-    <row r="134" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="28" t="s">
         <v>56</v>
       </c>
@@ -5653,7 +5342,7 @@
       <c r="I134" s="42"/>
       <c r="K134" s="29"/>
     </row>
-    <row r="135" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="28" t="s">
         <v>56</v>
       </c>
@@ -5681,7 +5370,7 @@
       <c r="I135" s="42"/>
       <c r="K135" s="29"/>
     </row>
-    <row r="136" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="28" t="s">
         <v>56</v>
       </c>
@@ -5709,7 +5398,7 @@
       <c r="I136" s="42"/>
       <c r="K136" s="29"/>
     </row>
-    <row r="137" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="28" t="s">
         <v>56</v>
       </c>
@@ -5737,7 +5426,7 @@
       <c r="I137" s="42"/>
       <c r="K137" s="29"/>
     </row>
-    <row r="138" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="28" t="s">
         <v>56</v>
       </c>
@@ -5765,7 +5454,7 @@
       <c r="I138" s="42"/>
       <c r="K138" s="29"/>
     </row>
-    <row r="139" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="28" t="s">
         <v>56</v>
       </c>
@@ -5793,7 +5482,7 @@
       <c r="I139" s="42"/>
       <c r="K139" s="29"/>
     </row>
-    <row r="140" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="28" t="s">
         <v>56</v>
       </c>
@@ -5821,7 +5510,7 @@
       <c r="I140" s="42"/>
       <c r="K140" s="29"/>
     </row>
-    <row r="141" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="28" t="s">
         <v>56</v>
       </c>
@@ -5849,7 +5538,7 @@
       <c r="I141" s="42"/>
       <c r="K141" s="29"/>
     </row>
-    <row r="142" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="28" t="s">
         <v>56</v>
       </c>
@@ -5877,7 +5566,7 @@
       <c r="I142" s="42"/>
       <c r="K142" s="29"/>
     </row>
-    <row r="143" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="28" t="s">
         <v>56</v>
       </c>
@@ -5905,7 +5594,7 @@
       <c r="I143" s="42"/>
       <c r="K143" s="29"/>
     </row>
-    <row r="144" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="28" t="s">
         <v>56</v>
       </c>
@@ -5933,7 +5622,7 @@
       <c r="I144" s="42"/>
       <c r="K144" s="29"/>
     </row>
-    <row r="145" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="28" t="s">
         <v>56</v>
       </c>
@@ -5961,7 +5650,7 @@
       <c r="I145" s="42"/>
       <c r="K145" s="29"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="17"/>
       <c r="B146" s="17"/>
       <c r="C146" s="18"/>
@@ -5969,12 +5658,8 @@
       <c r="E146" s="17"/>
       <c r="F146" s="29"/>
       <c r="K146" s="29"/>
-      <c r="L146" s="2" t="e">
-        <f>MATCH(A146,M:M,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="17" t="s">
         <v>57</v>
       </c>
@@ -6002,14 +5687,12 @@
       <c r="I147" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J147" s="47"/>
+      <c r="J147" s="29">
+        <v>130</v>
+      </c>
       <c r="K147" s="29"/>
-      <c r="L147" s="2">
-        <f>MATCH(A147,M:M,0)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="28" t="s">
         <v>57</v>
       </c>
@@ -6031,16 +5714,12 @@
       <c r="G148" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H148" s="51"/>
+      <c r="H148" s="50"/>
       <c r="I148" s="29"/>
       <c r="J148" s="29"/>
       <c r="K148" s="29"/>
-      <c r="L148" s="2">
-        <f>MATCH(A148,M:M,0)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="28" t="s">
         <v>57</v>
       </c>
@@ -6062,16 +5741,12 @@
       <c r="G149" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H149" s="51"/>
+      <c r="H149" s="50"/>
       <c r="I149" s="29"/>
       <c r="J149" s="29"/>
       <c r="K149" s="29"/>
-      <c r="L149" s="2">
-        <f>MATCH(A149,M:M,0)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="28" t="s">
         <v>57</v>
       </c>
@@ -6099,12 +5774,8 @@
       <c r="I150" s="29"/>
       <c r="J150" s="29"/>
       <c r="K150" s="29"/>
-      <c r="L150" s="2">
-        <f>MATCH(A150,M:M,0)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="28" t="s">
         <v>57</v>
       </c>
@@ -6132,7 +5803,7 @@
       <c r="I151" s="30"/>
       <c r="K151" s="29"/>
     </row>
-    <row r="152" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="28" t="s">
         <v>57</v>
       </c>
@@ -6160,7 +5831,7 @@
       <c r="I152" s="42"/>
       <c r="K152" s="29"/>
     </row>
-    <row r="153" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="28" t="s">
         <v>57</v>
       </c>
@@ -6188,7 +5859,7 @@
       <c r="I153" s="42"/>
       <c r="K153" s="29"/>
     </row>
-    <row r="154" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="28" t="s">
         <v>57</v>
       </c>
@@ -6216,7 +5887,7 @@
       <c r="I154" s="42"/>
       <c r="K154" s="29"/>
     </row>
-    <row r="155" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="28" t="s">
         <v>57</v>
       </c>
@@ -6244,7 +5915,7 @@
       <c r="I155" s="42"/>
       <c r="K155" s="29"/>
     </row>
-    <row r="156" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="28" t="s">
         <v>57</v>
       </c>
@@ -6272,7 +5943,7 @@
       <c r="I156" s="42"/>
       <c r="K156" s="29"/>
     </row>
-    <row r="157" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="28" t="s">
         <v>57</v>
       </c>
@@ -6300,7 +5971,7 @@
       <c r="I157" s="42"/>
       <c r="K157" s="29"/>
     </row>
-    <row r="158" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A158" s="28" t="s">
         <v>57</v>
       </c>
@@ -6328,7 +5999,7 @@
       <c r="I158" s="42"/>
       <c r="K158" s="29"/>
     </row>
-    <row r="159" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A159" s="28" t="s">
         <v>57</v>
       </c>
@@ -6356,7 +6027,7 @@
       <c r="I159" s="42"/>
       <c r="K159" s="29"/>
     </row>
-    <row r="160" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A160" s="28" t="s">
         <v>57</v>
       </c>
@@ -6384,7 +6055,7 @@
       <c r="I160" s="42"/>
       <c r="K160" s="29"/>
     </row>
-    <row r="161" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A161" s="28" t="s">
         <v>57</v>
       </c>
@@ -6412,7 +6083,7 @@
       <c r="I161" s="42"/>
       <c r="K161" s="29"/>
     </row>
-    <row r="162" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A162" s="28" t="s">
         <v>57</v>
       </c>
@@ -6440,7 +6111,7 @@
       <c r="I162" s="42"/>
       <c r="K162" s="29"/>
     </row>
-    <row r="163" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A163" s="28" t="s">
         <v>57</v>
       </c>
@@ -6468,7 +6139,7 @@
       <c r="I163" s="42"/>
       <c r="K163" s="29"/>
     </row>
-    <row r="164" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A164" s="28" t="s">
         <v>57</v>
       </c>
@@ -6496,7 +6167,7 @@
       <c r="I164" s="42"/>
       <c r="K164" s="29"/>
     </row>
-    <row r="165" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A165" s="28" t="s">
         <v>57</v>
       </c>
@@ -6524,7 +6195,7 @@
       <c r="I165" s="42"/>
       <c r="K165" s="29"/>
     </row>
-    <row r="166" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A166" s="28" t="s">
         <v>57</v>
       </c>
@@ -6552,7 +6223,7 @@
       <c r="I166" s="42"/>
       <c r="K166" s="29"/>
     </row>
-    <row r="167" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A167" s="28" t="s">
         <v>57</v>
       </c>
@@ -6580,7 +6251,7 @@
       <c r="I167" s="42"/>
       <c r="K167" s="29"/>
     </row>
-    <row r="168" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="28" t="s">
         <v>57</v>
       </c>
@@ -6608,7 +6279,7 @@
       <c r="I168" s="42"/>
       <c r="K168" s="29"/>
     </row>
-    <row r="169" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="28" t="s">
         <v>57</v>
       </c>
@@ -6636,7 +6307,7 @@
       <c r="I169" s="42"/>
       <c r="K169" s="29"/>
     </row>
-    <row r="170" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A170" s="28" t="s">
         <v>57</v>
       </c>
@@ -6664,7 +6335,7 @@
       <c r="I170" s="42"/>
       <c r="K170" s="29"/>
     </row>
-    <row r="171" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A171" s="28" t="s">
         <v>57</v>
       </c>
@@ -6692,7 +6363,7 @@
       <c r="I171" s="42"/>
       <c r="K171" s="29"/>
     </row>
-    <row r="172" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A172" s="28" t="s">
         <v>57</v>
       </c>
@@ -6720,7 +6391,7 @@
       <c r="I172" s="42"/>
       <c r="K172" s="29"/>
     </row>
-    <row r="173" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A173" s="28" t="s">
         <v>57</v>
       </c>
@@ -6748,7 +6419,7 @@
       <c r="I173" s="42"/>
       <c r="K173" s="29"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="17"/>
       <c r="B174" s="17"/>
       <c r="C174" s="18"/>
@@ -6756,12 +6427,8 @@
       <c r="E174" s="17"/>
       <c r="F174" s="29"/>
       <c r="K174" s="29"/>
-      <c r="L174" s="2" t="e">
-        <f>MATCH(A174,M:M,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A175" s="17" t="s">
         <v>58</v>
       </c>
@@ -6789,14 +6456,12 @@
       <c r="I175" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J175" s="47"/>
+      <c r="J175" s="29">
+        <v>180</v>
+      </c>
       <c r="K175" s="29"/>
-      <c r="L175" s="2">
-        <f>MATCH(A175,M:M,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A176" s="28" t="s">
         <v>58</v>
       </c>
@@ -6818,16 +6483,12 @@
       <c r="G176" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H176" s="51"/>
+      <c r="H176" s="50"/>
       <c r="I176" s="29"/>
       <c r="J176" s="29"/>
       <c r="K176" s="29"/>
-      <c r="L176" s="2">
-        <f>MATCH(A176,M:M,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A177" s="28" t="s">
         <v>58</v>
       </c>
@@ -6849,16 +6510,12 @@
       <c r="G177" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H177" s="51"/>
+      <c r="H177" s="50"/>
       <c r="I177" s="29"/>
       <c r="J177" s="29"/>
       <c r="K177" s="29"/>
-      <c r="L177" s="2">
-        <f>MATCH(A177,M:M,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A178" s="28" t="s">
         <v>58</v>
       </c>
@@ -6886,12 +6543,8 @@
       <c r="I178" s="29"/>
       <c r="J178" s="29"/>
       <c r="K178" s="29"/>
-      <c r="L178" s="2">
-        <f>MATCH(A178,M:M,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A179" s="28" t="s">
         <v>58</v>
       </c>
@@ -6919,7 +6572,7 @@
       <c r="I179" s="30"/>
       <c r="K179" s="29"/>
     </row>
-    <row r="180" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A180" s="28" t="s">
         <v>58</v>
       </c>
@@ -6947,7 +6600,7 @@
       <c r="I180" s="42"/>
       <c r="K180" s="29"/>
     </row>
-    <row r="181" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A181" s="28" t="s">
         <v>58</v>
       </c>
@@ -6975,7 +6628,7 @@
       <c r="I181" s="42"/>
       <c r="K181" s="29"/>
     </row>
-    <row r="182" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A182" s="28" t="s">
         <v>58</v>
       </c>
@@ -7003,7 +6656,7 @@
       <c r="I182" s="42"/>
       <c r="K182" s="29"/>
     </row>
-    <row r="183" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A183" s="28" t="s">
         <v>58</v>
       </c>
@@ -7031,7 +6684,7 @@
       <c r="I183" s="42"/>
       <c r="K183" s="29"/>
     </row>
-    <row r="184" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A184" s="28" t="s">
         <v>58</v>
       </c>
@@ -7059,7 +6712,7 @@
       <c r="I184" s="42"/>
       <c r="K184" s="29"/>
     </row>
-    <row r="185" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A185" s="28" t="s">
         <v>58</v>
       </c>
@@ -7087,7 +6740,7 @@
       <c r="I185" s="42"/>
       <c r="K185" s="29"/>
     </row>
-    <row r="186" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A186" s="28" t="s">
         <v>58</v>
       </c>
@@ -7115,7 +6768,7 @@
       <c r="I186" s="42"/>
       <c r="K186" s="29"/>
     </row>
-    <row r="187" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A187" s="28" t="s">
         <v>58</v>
       </c>
@@ -7143,7 +6796,7 @@
       <c r="I187" s="42"/>
       <c r="K187" s="29"/>
     </row>
-    <row r="188" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A188" s="28" t="s">
         <v>58</v>
       </c>
@@ -7171,7 +6824,7 @@
       <c r="I188" s="42"/>
       <c r="K188" s="29"/>
     </row>
-    <row r="189" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A189" s="28" t="s">
         <v>58</v>
       </c>
@@ -7199,7 +6852,7 @@
       <c r="I189" s="42"/>
       <c r="K189" s="29"/>
     </row>
-    <row r="190" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A190" s="28" t="s">
         <v>58</v>
       </c>
@@ -7227,7 +6880,7 @@
       <c r="I190" s="42"/>
       <c r="K190" s="29"/>
     </row>
-    <row r="191" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A191" s="28" t="s">
         <v>58</v>
       </c>
@@ -7255,7 +6908,7 @@
       <c r="I191" s="42"/>
       <c r="K191" s="29"/>
     </row>
-    <row r="192" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A192" s="28" t="s">
         <v>58</v>
       </c>
@@ -7283,7 +6936,7 @@
       <c r="I192" s="42"/>
       <c r="K192" s="29"/>
     </row>
-    <row r="193" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A193" s="28" t="s">
         <v>58</v>
       </c>
@@ -7311,7 +6964,7 @@
       <c r="I193" s="42"/>
       <c r="K193" s="29"/>
     </row>
-    <row r="194" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A194" s="28" t="s">
         <v>58</v>
       </c>
@@ -7339,7 +6992,7 @@
       <c r="I194" s="42"/>
       <c r="K194" s="29"/>
     </row>
-    <row r="195" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A195" s="28" t="s">
         <v>58</v>
       </c>
@@ -7367,7 +7020,7 @@
       <c r="I195" s="42"/>
       <c r="K195" s="29"/>
     </row>
-    <row r="196" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A196" s="28" t="s">
         <v>58</v>
       </c>
@@ -7395,7 +7048,7 @@
       <c r="I196" s="42"/>
       <c r="K196" s="29"/>
     </row>
-    <row r="197" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A197" s="28" t="s">
         <v>58</v>
       </c>
@@ -7423,7 +7076,7 @@
       <c r="I197" s="42"/>
       <c r="K197" s="29"/>
     </row>
-    <row r="198" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A198" s="28" t="s">
         <v>58</v>
       </c>
@@ -7451,7 +7104,7 @@
       <c r="I198" s="42"/>
       <c r="K198" s="29"/>
     </row>
-    <row r="199" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A199" s="28" t="s">
         <v>58</v>
       </c>
@@ -7479,7 +7132,7 @@
       <c r="I199" s="42"/>
       <c r="K199" s="29"/>
     </row>
-    <row r="200" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A200" s="28" t="s">
         <v>58</v>
       </c>
@@ -7507,7 +7160,7 @@
       <c r="I200" s="42"/>
       <c r="K200" s="29"/>
     </row>
-    <row r="201" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A201" s="28" t="s">
         <v>58</v>
       </c>
@@ -7535,7 +7188,7 @@
       <c r="I201" s="42"/>
       <c r="K201" s="29"/>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="17"/>
       <c r="B202" s="17"/>
       <c r="C202" s="18"/>
@@ -7543,12 +7196,8 @@
       <c r="E202" s="17"/>
       <c r="F202" s="29"/>
       <c r="K202" s="29"/>
-      <c r="L202" s="2" t="e">
-        <f>MATCH(A202,M:M,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>69</v>
       </c>
@@ -7576,14 +7225,12 @@
       <c r="I203" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J203" s="47"/>
+      <c r="J203" s="29">
+        <v>250</v>
+      </c>
       <c r="K203" s="29"/>
-      <c r="L203" s="2">
-        <f>MATCH(A203,M:M,0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="204" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A204" s="28" t="s">
         <v>69</v>
       </c>
@@ -7605,16 +7252,12 @@
       <c r="G204" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H204" s="51"/>
+      <c r="H204" s="50"/>
       <c r="I204" s="29"/>
       <c r="J204" s="29"/>
       <c r="K204" s="29"/>
-      <c r="L204" s="2">
-        <f>MATCH(A204,M:M,0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A205" s="28" t="s">
         <v>69</v>
       </c>
@@ -7636,16 +7279,12 @@
       <c r="G205" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H205" s="51"/>
+      <c r="H205" s="50"/>
       <c r="I205" s="29"/>
       <c r="J205" s="29"/>
       <c r="K205" s="29"/>
-      <c r="L205" s="2">
-        <f>MATCH(A205,M:M,0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="206" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A206" s="28" t="s">
         <v>69</v>
       </c>
@@ -7673,12 +7312,8 @@
       <c r="I206" s="29"/>
       <c r="J206" s="29"/>
       <c r="K206" s="29"/>
-      <c r="L206" s="2">
-        <f>MATCH(A206,M:M,0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="207" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A207" s="28" t="s">
         <v>69</v>
       </c>
@@ -7706,7 +7341,7 @@
       <c r="I207" s="30"/>
       <c r="K207" s="29"/>
     </row>
-    <row r="208" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A208" s="28" t="s">
         <v>69</v>
       </c>
@@ -7734,7 +7369,7 @@
       <c r="I208" s="42"/>
       <c r="K208" s="29"/>
     </row>
-    <row r="209" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A209" s="28" t="s">
         <v>69</v>
       </c>
@@ -7762,7 +7397,7 @@
       <c r="I209" s="42"/>
       <c r="K209" s="29"/>
     </row>
-    <row r="210" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A210" s="28" t="s">
         <v>69</v>
       </c>
@@ -7790,7 +7425,7 @@
       <c r="I210" s="42"/>
       <c r="K210" s="29"/>
     </row>
-    <row r="211" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A211" s="28" t="s">
         <v>69</v>
       </c>
@@ -7818,7 +7453,7 @@
       <c r="I211" s="42"/>
       <c r="K211" s="29"/>
     </row>
-    <row r="212" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A212" s="28" t="s">
         <v>69</v>
       </c>
@@ -7846,7 +7481,7 @@
       <c r="I212" s="42"/>
       <c r="K212" s="29"/>
     </row>
-    <row r="213" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A213" s="28" t="s">
         <v>69</v>
       </c>
@@ -7874,7 +7509,7 @@
       <c r="I213" s="42"/>
       <c r="K213" s="29"/>
     </row>
-    <row r="214" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A214" s="28" t="s">
         <v>69</v>
       </c>
@@ -7902,7 +7537,7 @@
       <c r="I214" s="42"/>
       <c r="K214" s="29"/>
     </row>
-    <row r="215" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A215" s="28" t="s">
         <v>69</v>
       </c>
@@ -7930,7 +7565,7 @@
       <c r="I215" s="42"/>
       <c r="K215" s="29"/>
     </row>
-    <row r="216" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A216" s="28" t="s">
         <v>69</v>
       </c>
@@ -7958,7 +7593,7 @@
       <c r="I216" s="42"/>
       <c r="K216" s="29"/>
     </row>
-    <row r="217" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A217" s="28" t="s">
         <v>69</v>
       </c>
@@ -7986,7 +7621,7 @@
       <c r="I217" s="42"/>
       <c r="K217" s="29"/>
     </row>
-    <row r="218" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A218" s="28" t="s">
         <v>69</v>
       </c>
@@ -8014,7 +7649,7 @@
       <c r="I218" s="42"/>
       <c r="K218" s="29"/>
     </row>
-    <row r="219" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A219" s="28" t="s">
         <v>69</v>
       </c>
@@ -8042,7 +7677,7 @@
       <c r="I219" s="42"/>
       <c r="K219" s="29"/>
     </row>
-    <row r="220" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A220" s="28" t="s">
         <v>69</v>
       </c>
@@ -8070,7 +7705,7 @@
       <c r="I220" s="42"/>
       <c r="K220" s="29"/>
     </row>
-    <row r="221" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A221" s="28" t="s">
         <v>69</v>
       </c>
@@ -8098,7 +7733,7 @@
       <c r="I221" s="42"/>
       <c r="K221" s="29"/>
     </row>
-    <row r="222" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A222" s="28" t="s">
         <v>69</v>
       </c>
@@ -8126,7 +7761,7 @@
       <c r="I222" s="42"/>
       <c r="K222" s="29"/>
     </row>
-    <row r="223" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="28" t="s">
         <v>69</v>
       </c>
@@ -8154,7 +7789,7 @@
       <c r="I223" s="42"/>
       <c r="K223" s="29"/>
     </row>
-    <row r="224" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A224" s="28" t="s">
         <v>69</v>
       </c>
@@ -8182,7 +7817,7 @@
       <c r="I224" s="42"/>
       <c r="K224" s="29"/>
     </row>
-    <row r="225" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A225" s="28" t="s">
         <v>69</v>
       </c>
@@ -8210,7 +7845,7 @@
       <c r="I225" s="42"/>
       <c r="K225" s="29"/>
     </row>
-    <row r="226" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A226" s="28" t="s">
         <v>69</v>
       </c>
@@ -8238,7 +7873,7 @@
       <c r="I226" s="42"/>
       <c r="K226" s="29"/>
     </row>
-    <row r="227" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A227" s="28" t="s">
         <v>69</v>
       </c>
@@ -8266,7 +7901,7 @@
       <c r="I227" s="42"/>
       <c r="K227" s="29"/>
     </row>
-    <row r="228" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A228" s="28" t="s">
         <v>69</v>
       </c>
@@ -8294,7 +7929,7 @@
       <c r="I228" s="42"/>
       <c r="K228" s="29"/>
     </row>
-    <row r="229" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A229" s="28" t="s">
         <v>69</v>
       </c>
@@ -8322,7 +7957,7 @@
       <c r="I229" s="42"/>
       <c r="K229" s="29"/>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="17"/>
       <c r="B230" s="17"/>
       <c r="C230" s="18"/>
@@ -8330,12 +7965,8 @@
       <c r="E230" s="17"/>
       <c r="F230" s="29"/>
       <c r="K230" s="29"/>
-      <c r="L230" s="2" t="e">
-        <f>MATCH(A230,M:M,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="231" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="231" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>70</v>
       </c>
@@ -8363,14 +7994,12 @@
       <c r="I231" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J231" s="47"/>
+      <c r="J231" s="29">
+        <v>350</v>
+      </c>
       <c r="K231" s="29"/>
-      <c r="L231" s="2">
-        <f>MATCH(A231,M:M,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="232" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="232" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A232" s="28" t="s">
         <v>70</v>
       </c>
@@ -8392,16 +8021,12 @@
       <c r="G232" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H232" s="51"/>
+      <c r="H232" s="50"/>
       <c r="I232" s="29"/>
       <c r="J232" s="29"/>
       <c r="K232" s="29"/>
-      <c r="L232" s="2">
-        <f>MATCH(A232,M:M,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="233" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="233" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A233" s="28" t="s">
         <v>70</v>
       </c>
@@ -8423,16 +8048,12 @@
       <c r="G233" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H233" s="51"/>
+      <c r="H233" s="50"/>
       <c r="I233" s="29"/>
       <c r="J233" s="29"/>
       <c r="K233" s="29"/>
-      <c r="L233" s="2">
-        <f>MATCH(A233,M:M,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="234" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="234" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="28" t="s">
         <v>70</v>
       </c>
@@ -8460,12 +8081,8 @@
       <c r="I234" s="29"/>
       <c r="J234" s="29"/>
       <c r="K234" s="29"/>
-      <c r="L234" s="2">
-        <f>MATCH(A234,M:M,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="235" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="235" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="28" t="s">
         <v>70</v>
       </c>
@@ -8493,7 +8110,7 @@
       <c r="I235" s="30"/>
       <c r="K235" s="29"/>
     </row>
-    <row r="236" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="28" t="s">
         <v>70</v>
       </c>
@@ -8521,7 +8138,7 @@
       <c r="I236" s="42"/>
       <c r="K236" s="29"/>
     </row>
-    <row r="237" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="28" t="s">
         <v>70</v>
       </c>
@@ -8549,7 +8166,7 @@
       <c r="I237" s="42"/>
       <c r="K237" s="29"/>
     </row>
-    <row r="238" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="28" t="s">
         <v>70</v>
       </c>
@@ -8577,7 +8194,7 @@
       <c r="I238" s="42"/>
       <c r="K238" s="29"/>
     </row>
-    <row r="239" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="28" t="s">
         <v>70</v>
       </c>
@@ -8605,7 +8222,7 @@
       <c r="I239" s="42"/>
       <c r="K239" s="29"/>
     </row>
-    <row r="240" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="28" t="s">
         <v>70</v>
       </c>
@@ -8633,7 +8250,7 @@
       <c r="I240" s="42"/>
       <c r="K240" s="29"/>
     </row>
-    <row r="241" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="28" t="s">
         <v>70</v>
       </c>
@@ -8661,7 +8278,7 @@
       <c r="I241" s="42"/>
       <c r="K241" s="29"/>
     </row>
-    <row r="242" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="28" t="s">
         <v>70</v>
       </c>
@@ -8689,7 +8306,7 @@
       <c r="I242" s="42"/>
       <c r="K242" s="29"/>
     </row>
-    <row r="243" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="28" t="s">
         <v>70</v>
       </c>
@@ -8717,7 +8334,7 @@
       <c r="I243" s="42"/>
       <c r="K243" s="29"/>
     </row>
-    <row r="244" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="28" t="s">
         <v>70</v>
       </c>
@@ -8745,7 +8362,7 @@
       <c r="I244" s="42"/>
       <c r="K244" s="29"/>
     </row>
-    <row r="245" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="28" t="s">
         <v>70</v>
       </c>
@@ -8773,7 +8390,7 @@
       <c r="I245" s="42"/>
       <c r="K245" s="29"/>
     </row>
-    <row r="246" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="28" t="s">
         <v>70</v>
       </c>
@@ -8801,7 +8418,7 @@
       <c r="I246" s="42"/>
       <c r="K246" s="29"/>
     </row>
-    <row r="247" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="28" t="s">
         <v>70</v>
       </c>
@@ -8829,7 +8446,7 @@
       <c r="I247" s="42"/>
       <c r="K247" s="29"/>
     </row>
-    <row r="248" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="28" t="s">
         <v>70</v>
       </c>
@@ -8857,7 +8474,7 @@
       <c r="I248" s="42"/>
       <c r="K248" s="29"/>
     </row>
-    <row r="249" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="28" t="s">
         <v>70</v>
       </c>
@@ -8885,7 +8502,7 @@
       <c r="I249" s="42"/>
       <c r="K249" s="29"/>
     </row>
-    <row r="250" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="28" t="s">
         <v>70</v>
       </c>
@@ -8913,7 +8530,7 @@
       <c r="I250" s="42"/>
       <c r="K250" s="29"/>
     </row>
-    <row r="251" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="28" t="s">
         <v>70</v>
       </c>
@@ -8941,7 +8558,7 @@
       <c r="I251" s="42"/>
       <c r="K251" s="29"/>
     </row>
-    <row r="252" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="28" t="s">
         <v>70</v>
       </c>
@@ -8969,7 +8586,7 @@
       <c r="I252" s="42"/>
       <c r="K252" s="29"/>
     </row>
-    <row r="253" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="28" t="s">
         <v>70</v>
       </c>
@@ -8997,7 +8614,7 @@
       <c r="I253" s="42"/>
       <c r="K253" s="29"/>
     </row>
-    <row r="254" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="28" t="s">
         <v>70</v>
       </c>
@@ -9025,7 +8642,7 @@
       <c r="I254" s="42"/>
       <c r="K254" s="29"/>
     </row>
-    <row r="255" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="28" t="s">
         <v>70</v>
       </c>
@@ -9053,7 +8670,7 @@
       <c r="I255" s="42"/>
       <c r="K255" s="29"/>
     </row>
-    <row r="256" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="28" t="s">
         <v>70</v>
       </c>
@@ -9081,7 +8698,7 @@
       <c r="I256" s="42"/>
       <c r="K256" s="29"/>
     </row>
-    <row r="257" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="28" t="s">
         <v>70</v>
       </c>
@@ -9109,7 +8726,7 @@
       <c r="I257" s="42"/>
       <c r="K257" s="29"/>
     </row>
-    <row r="258" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="28"/>
       <c r="B258"/>
       <c r="C258" s="18"/>
@@ -9117,12 +8734,8 @@
       <c r="E258" s="17"/>
       <c r="F258" s="29"/>
       <c r="K258" s="29"/>
-      <c r="L258" s="2" t="e">
-        <f>MATCH(A258,M:M,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="259" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="259" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A259" s="17" t="s">
         <v>59</v>
       </c>
@@ -9150,14 +8763,12 @@
       <c r="I259" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J259" s="47"/>
+      <c r="J259" s="29">
+        <v>500</v>
+      </c>
       <c r="K259" s="29"/>
-      <c r="L259" s="2">
-        <f>MATCH(A259,M:M,0)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="260" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="260" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A260" s="28" t="s">
         <v>59</v>
       </c>
@@ -9179,16 +8790,12 @@
       <c r="G260" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H260" s="51"/>
+      <c r="H260" s="50"/>
       <c r="I260" s="29"/>
       <c r="J260" s="29"/>
       <c r="K260" s="29"/>
-      <c r="L260" s="2">
-        <f>MATCH(A260,M:M,0)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="261" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="261" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A261" s="28" t="s">
         <v>59</v>
       </c>
@@ -9210,16 +8817,12 @@
       <c r="G261" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H261" s="51"/>
+      <c r="H261" s="50"/>
       <c r="I261" s="29"/>
       <c r="J261" s="29"/>
       <c r="K261" s="29"/>
-      <c r="L261" s="2">
-        <f>MATCH(A261,M:M,0)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="262" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="262" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A262" s="28" t="s">
         <v>59</v>
       </c>
@@ -9247,12 +8850,8 @@
       <c r="I262" s="29"/>
       <c r="J262" s="29"/>
       <c r="K262" s="29"/>
-      <c r="L262" s="2">
-        <f>MATCH(A262,M:M,0)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="263" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="263" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A263" s="28" t="s">
         <v>59</v>
       </c>
@@ -9280,7 +8879,7 @@
       <c r="I263" s="30"/>
       <c r="K263" s="29"/>
     </row>
-    <row r="264" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A264" s="28" t="s">
         <v>59</v>
       </c>
@@ -9308,7 +8907,7 @@
       <c r="I264" s="42"/>
       <c r="K264" s="29"/>
     </row>
-    <row r="265" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A265" s="28" t="s">
         <v>59</v>
       </c>
@@ -9336,7 +8935,7 @@
       <c r="I265" s="42"/>
       <c r="K265" s="29"/>
     </row>
-    <row r="266" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A266" s="28" t="s">
         <v>59</v>
       </c>
@@ -9364,7 +8963,7 @@
       <c r="I266" s="42"/>
       <c r="K266" s="29"/>
     </row>
-    <row r="267" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A267" s="28" t="s">
         <v>59</v>
       </c>
@@ -9392,7 +8991,7 @@
       <c r="I267" s="42"/>
       <c r="K267" s="29"/>
     </row>
-    <row r="268" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A268" s="28" t="s">
         <v>59</v>
       </c>
@@ -9420,7 +9019,7 @@
       <c r="I268" s="42"/>
       <c r="K268" s="29"/>
     </row>
-    <row r="269" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A269" s="28" t="s">
         <v>59</v>
       </c>
@@ -9448,7 +9047,7 @@
       <c r="I269" s="42"/>
       <c r="K269" s="29"/>
     </row>
-    <row r="270" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A270" s="28" t="s">
         <v>59</v>
       </c>
@@ -9476,7 +9075,7 @@
       <c r="I270" s="42"/>
       <c r="K270" s="29"/>
     </row>
-    <row r="271" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A271" s="28" t="s">
         <v>59</v>
       </c>
@@ -9504,7 +9103,7 @@
       <c r="I271" s="42"/>
       <c r="K271" s="29"/>
     </row>
-    <row r="272" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A272" s="28" t="s">
         <v>59</v>
       </c>
@@ -9532,7 +9131,7 @@
       <c r="I272" s="42"/>
       <c r="K272" s="29"/>
     </row>
-    <row r="273" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A273" s="28" t="s">
         <v>59</v>
       </c>
@@ -9560,7 +9159,7 @@
       <c r="I273" s="42"/>
       <c r="K273" s="29"/>
     </row>
-    <row r="274" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A274" s="28" t="s">
         <v>59</v>
       </c>
@@ -9588,7 +9187,7 @@
       <c r="I274" s="42"/>
       <c r="K274" s="29"/>
     </row>
-    <row r="275" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A275" s="28" t="s">
         <v>59</v>
       </c>
@@ -9616,7 +9215,7 @@
       <c r="I275" s="42"/>
       <c r="K275" s="29"/>
     </row>
-    <row r="276" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A276" s="28" t="s">
         <v>59</v>
       </c>
@@ -9644,7 +9243,7 @@
       <c r="I276" s="42"/>
       <c r="K276" s="29"/>
     </row>
-    <row r="277" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A277" s="28" t="s">
         <v>59</v>
       </c>
@@ -9672,7 +9271,7 @@
       <c r="I277" s="42"/>
       <c r="K277" s="29"/>
     </row>
-    <row r="278" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A278" s="28" t="s">
         <v>59</v>
       </c>
@@ -9700,7 +9299,7 @@
       <c r="I278" s="42"/>
       <c r="K278" s="29"/>
     </row>
-    <row r="279" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A279" s="28" t="s">
         <v>59</v>
       </c>
@@ -9728,7 +9327,7 @@
       <c r="I279" s="42"/>
       <c r="K279" s="29"/>
     </row>
-    <row r="280" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A280" s="28" t="s">
         <v>59</v>
       </c>
@@ -9756,7 +9355,7 @@
       <c r="I280" s="42"/>
       <c r="K280" s="29"/>
     </row>
-    <row r="281" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A281" s="28" t="s">
         <v>59</v>
       </c>
@@ -9784,7 +9383,7 @@
       <c r="I281" s="42"/>
       <c r="K281" s="29"/>
     </row>
-    <row r="282" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A282" s="28" t="s">
         <v>59</v>
       </c>
@@ -9812,7 +9411,7 @@
       <c r="I282" s="42"/>
       <c r="K282" s="29"/>
     </row>
-    <row r="283" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A283" s="28" t="s">
         <v>59</v>
       </c>
@@ -9840,7 +9439,7 @@
       <c r="I283" s="42"/>
       <c r="K283" s="29"/>
     </row>
-    <row r="284" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A284" s="28" t="s">
         <v>59</v>
       </c>
@@ -9868,7 +9467,7 @@
       <c r="I284" s="42"/>
       <c r="K284" s="29"/>
     </row>
-    <row r="285" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A285" s="28" t="s">
         <v>59</v>
       </c>
@@ -9896,7 +9495,7 @@
       <c r="I285" s="42"/>
       <c r="K285" s="29"/>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A286" s="17"/>
       <c r="B286" s="17"/>
       <c r="C286" s="18"/>
@@ -9904,12 +9503,8 @@
       <c r="E286" s="17"/>
       <c r="F286" s="19"/>
       <c r="K286" s="29"/>
-      <c r="L286" s="2" t="e">
-        <f>MATCH(A286,M:M,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="287" spans="1:12" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="287" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A287" s="17" t="s">
         <v>60</v>
       </c>
@@ -9937,14 +9532,12 @@
       <c r="I287" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J287" s="47"/>
+      <c r="J287" s="29">
+        <v>750</v>
+      </c>
       <c r="K287" s="19"/>
-      <c r="L287" s="2">
-        <f>MATCH(A287,M:M,0)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="288" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="288" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A288" s="28" t="s">
         <v>60</v>
       </c>
@@ -9966,16 +9559,12 @@
       <c r="G288" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H288" s="51"/>
+      <c r="H288" s="50"/>
       <c r="I288" s="29"/>
       <c r="J288" s="29"/>
       <c r="K288" s="29"/>
-      <c r="L288" s="2">
-        <f>MATCH(A288,M:M,0)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="289" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="289" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A289" s="28" t="s">
         <v>60</v>
       </c>
@@ -9997,16 +9586,12 @@
       <c r="G289" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H289" s="51"/>
+      <c r="H289" s="50"/>
       <c r="I289" s="29"/>
       <c r="J289" s="29"/>
       <c r="K289" s="29"/>
-      <c r="L289" s="2">
-        <f>MATCH(A289,M:M,0)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="290" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="290" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A290" s="28" t="s">
         <v>60</v>
       </c>
@@ -10034,12 +9619,8 @@
       <c r="I290" s="29"/>
       <c r="J290" s="29"/>
       <c r="K290" s="29"/>
-      <c r="L290" s="2">
-        <f>MATCH(A290,M:M,0)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="291" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="291" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A291" s="28" t="s">
         <v>60</v>
       </c>
@@ -10067,7 +9648,7 @@
       <c r="I291" s="30"/>
       <c r="K291" s="29"/>
     </row>
-    <row r="292" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A292" s="28" t="s">
         <v>60</v>
       </c>
@@ -10095,7 +9676,7 @@
       <c r="I292" s="42"/>
       <c r="K292" s="29"/>
     </row>
-    <row r="293" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A293" s="28" t="s">
         <v>60</v>
       </c>
@@ -10123,7 +9704,7 @@
       <c r="I293" s="42"/>
       <c r="K293" s="29"/>
     </row>
-    <row r="294" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A294" s="28" t="s">
         <v>60</v>
       </c>
@@ -10151,7 +9732,7 @@
       <c r="I294" s="42"/>
       <c r="K294" s="29"/>
     </row>
-    <row r="295" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A295" s="28" t="s">
         <v>60</v>
       </c>
@@ -10179,7 +9760,7 @@
       <c r="I295" s="42"/>
       <c r="K295" s="29"/>
     </row>
-    <row r="296" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A296" s="28" t="s">
         <v>60</v>
       </c>
@@ -10207,7 +9788,7 @@
       <c r="I296" s="42"/>
       <c r="K296" s="29"/>
     </row>
-    <row r="297" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A297" s="28" t="s">
         <v>60</v>
       </c>
@@ -10235,7 +9816,7 @@
       <c r="I297" s="42"/>
       <c r="K297" s="29"/>
     </row>
-    <row r="298" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A298" s="28" t="s">
         <v>60</v>
       </c>
@@ -10263,7 +9844,7 @@
       <c r="I298" s="42"/>
       <c r="K298" s="29"/>
     </row>
-    <row r="299" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A299" s="28" t="s">
         <v>60</v>
       </c>
@@ -10291,7 +9872,7 @@
       <c r="I299" s="42"/>
       <c r="K299" s="29"/>
     </row>
-    <row r="300" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A300" s="28" t="s">
         <v>60</v>
       </c>
@@ -10319,7 +9900,7 @@
       <c r="I300" s="42"/>
       <c r="K300" s="29"/>
     </row>
-    <row r="301" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A301" s="28" t="s">
         <v>60</v>
       </c>
@@ -10347,7 +9928,7 @@
       <c r="I301" s="42"/>
       <c r="K301" s="29"/>
     </row>
-    <row r="302" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A302" s="28" t="s">
         <v>60</v>
       </c>
@@ -10375,7 +9956,7 @@
       <c r="I302" s="42"/>
       <c r="K302" s="29"/>
     </row>
-    <row r="303" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A303" s="28" t="s">
         <v>60</v>
       </c>
@@ -10403,7 +9984,7 @@
       <c r="I303" s="42"/>
       <c r="K303" s="29"/>
     </row>
-    <row r="304" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A304" s="28" t="s">
         <v>60</v>
       </c>
@@ -10431,7 +10012,7 @@
       <c r="I304" s="42"/>
       <c r="K304" s="29"/>
     </row>
-    <row r="305" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A305" s="28" t="s">
         <v>60</v>
       </c>
@@ -10459,7 +10040,7 @@
       <c r="I305" s="42"/>
       <c r="K305" s="29"/>
     </row>
-    <row r="306" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A306" s="28" t="s">
         <v>60</v>
       </c>
@@ -10487,7 +10068,7 @@
       <c r="I306" s="42"/>
       <c r="K306" s="29"/>
     </row>
-    <row r="307" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A307" s="28" t="s">
         <v>60</v>
       </c>
@@ -10515,7 +10096,7 @@
       <c r="I307" s="42"/>
       <c r="K307" s="29"/>
     </row>
-    <row r="308" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A308" s="28" t="s">
         <v>60</v>
       </c>
@@ -10543,7 +10124,7 @@
       <c r="I308" s="42"/>
       <c r="K308" s="29"/>
     </row>
-    <row r="309" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A309" s="28" t="s">
         <v>60</v>
       </c>
@@ -10571,7 +10152,7 @@
       <c r="I309" s="42"/>
       <c r="K309" s="29"/>
     </row>
-    <row r="310" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A310" s="28" t="s">
         <v>60</v>
       </c>
@@ -10599,7 +10180,7 @@
       <c r="I310" s="42"/>
       <c r="K310" s="29"/>
     </row>
-    <row r="311" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A311" s="28" t="s">
         <v>60</v>
       </c>
@@ -10627,7 +10208,7 @@
       <c r="I311" s="42"/>
       <c r="K311" s="29"/>
     </row>
-    <row r="312" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A312" s="28" t="s">
         <v>60</v>
       </c>
@@ -10655,7 +10236,7 @@
       <c r="I312" s="42"/>
       <c r="K312" s="29"/>
     </row>
-    <row r="313" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A313" s="28" t="s">
         <v>60</v>
       </c>
@@ -10683,7 +10264,7 @@
       <c r="I313" s="42"/>
       <c r="K313" s="29"/>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A314" s="17"/>
       <c r="B314" s="17"/>
       <c r="C314" s="18"/>
@@ -10691,12 +10272,8 @@
       <c r="E314" s="17"/>
       <c r="F314" s="29"/>
       <c r="K314" s="29"/>
-      <c r="L314" s="2" t="e">
-        <f>MATCH(A314,M:M,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="315" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="315" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A315" s="17" t="s">
         <v>61</v>
       </c>
@@ -10724,14 +10301,12 @@
       <c r="I315" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J315" s="47"/>
+      <c r="J315" s="29">
+        <v>1000</v>
+      </c>
       <c r="K315" s="29"/>
-      <c r="L315" s="2">
-        <f>MATCH(A315,M:M,0)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="316" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="316" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A316" s="28" t="s">
         <v>61</v>
       </c>
@@ -10753,16 +10328,12 @@
       <c r="G316" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H316" s="51"/>
+      <c r="H316" s="50"/>
       <c r="I316" s="29"/>
       <c r="J316" s="29"/>
       <c r="K316" s="29"/>
-      <c r="L316" s="2">
-        <f>MATCH(A316,M:M,0)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="317" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="317" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A317" s="28" t="s">
         <v>61</v>
       </c>
@@ -10784,16 +10355,12 @@
       <c r="G317" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H317" s="51"/>
+      <c r="H317" s="50"/>
       <c r="I317" s="29"/>
       <c r="J317" s="29"/>
       <c r="K317" s="29"/>
-      <c r="L317" s="2">
-        <f>MATCH(A317,M:M,0)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="318" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="318" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A318" s="28" t="s">
         <v>61</v>
       </c>
@@ -10821,12 +10388,8 @@
       <c r="I318" s="29"/>
       <c r="J318" s="29"/>
       <c r="K318" s="29"/>
-      <c r="L318" s="2">
-        <f>MATCH(A318,M:M,0)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="319" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="319" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A319" s="28" t="s">
         <v>61</v>
       </c>
@@ -10854,7 +10417,7 @@
       <c r="I319" s="30"/>
       <c r="K319" s="29"/>
     </row>
-    <row r="320" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A320" s="28" t="s">
         <v>61</v>
       </c>
@@ -10882,7 +10445,7 @@
       <c r="I320" s="42"/>
       <c r="K320" s="29"/>
     </row>
-    <row r="321" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A321" s="28" t="s">
         <v>61</v>
       </c>
@@ -10910,7 +10473,7 @@
       <c r="I321" s="42"/>
       <c r="K321" s="29"/>
     </row>
-    <row r="322" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A322" s="28" t="s">
         <v>61</v>
       </c>
@@ -10938,7 +10501,7 @@
       <c r="I322" s="42"/>
       <c r="K322" s="29"/>
     </row>
-    <row r="323" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A323" s="28" t="s">
         <v>61</v>
       </c>
@@ -10966,7 +10529,7 @@
       <c r="I323" s="42"/>
       <c r="K323" s="29"/>
     </row>
-    <row r="324" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A324" s="28" t="s">
         <v>61</v>
       </c>
@@ -10994,7 +10557,7 @@
       <c r="I324" s="42"/>
       <c r="K324" s="29"/>
     </row>
-    <row r="325" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A325" s="28" t="s">
         <v>61</v>
       </c>
@@ -11022,7 +10585,7 @@
       <c r="I325" s="42"/>
       <c r="K325" s="29"/>
     </row>
-    <row r="326" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A326" s="28" t="s">
         <v>61</v>
       </c>
@@ -11050,7 +10613,7 @@
       <c r="I326" s="42"/>
       <c r="K326" s="29"/>
     </row>
-    <row r="327" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A327" s="28" t="s">
         <v>61</v>
       </c>
@@ -11078,7 +10641,7 @@
       <c r="I327" s="42"/>
       <c r="K327" s="29"/>
     </row>
-    <row r="328" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A328" s="28" t="s">
         <v>61</v>
       </c>
@@ -11106,7 +10669,7 @@
       <c r="I328" s="42"/>
       <c r="K328" s="29"/>
     </row>
-    <row r="329" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A329" s="28" t="s">
         <v>61</v>
       </c>
@@ -11134,7 +10697,7 @@
       <c r="I329" s="42"/>
       <c r="K329" s="29"/>
     </row>
-    <row r="330" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A330" s="28" t="s">
         <v>61</v>
       </c>
@@ -11162,7 +10725,7 @@
       <c r="I330" s="42"/>
       <c r="K330" s="29"/>
     </row>
-    <row r="331" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A331" s="28" t="s">
         <v>61</v>
       </c>
@@ -11190,7 +10753,7 @@
       <c r="I331" s="42"/>
       <c r="K331" s="29"/>
     </row>
-    <row r="332" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A332" s="28" t="s">
         <v>61</v>
       </c>
@@ -11218,7 +10781,7 @@
       <c r="I332" s="42"/>
       <c r="K332" s="29"/>
     </row>
-    <row r="333" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A333" s="28" t="s">
         <v>61</v>
       </c>
@@ -11246,7 +10809,7 @@
       <c r="I333" s="42"/>
       <c r="K333" s="29"/>
     </row>
-    <row r="334" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A334" s="28" t="s">
         <v>61</v>
       </c>
@@ -11274,7 +10837,7 @@
       <c r="I334" s="42"/>
       <c r="K334" s="29"/>
     </row>
-    <row r="335" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A335" s="28" t="s">
         <v>61</v>
       </c>
@@ -11302,7 +10865,7 @@
       <c r="I335" s="42"/>
       <c r="K335" s="29"/>
     </row>
-    <row r="336" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A336" s="28" t="s">
         <v>61</v>
       </c>
@@ -11330,7 +10893,7 @@
       <c r="I336" s="42"/>
       <c r="K336" s="29"/>
     </row>
-    <row r="337" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A337" s="28" t="s">
         <v>61</v>
       </c>
@@ -11358,7 +10921,7 @@
       <c r="I337" s="42"/>
       <c r="K337" s="29"/>
     </row>
-    <row r="338" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A338" s="28" t="s">
         <v>61</v>
       </c>
@@ -11386,7 +10949,7 @@
       <c r="I338" s="42"/>
       <c r="K338" s="29"/>
     </row>
-    <row r="339" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A339" s="28" t="s">
         <v>61</v>
       </c>
@@ -11414,7 +10977,7 @@
       <c r="I339" s="42"/>
       <c r="K339" s="29"/>
     </row>
-    <row r="340" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A340" s="28" t="s">
         <v>61</v>
       </c>
@@ -11442,7 +11005,7 @@
       <c r="I340" s="42"/>
       <c r="K340" s="29"/>
     </row>
-    <row r="341" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A341" s="28" t="s">
         <v>61</v>
       </c>
@@ -11470,7 +11033,7 @@
       <c r="I341" s="42"/>
       <c r="K341" s="29"/>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A342" s="17"/>
       <c r="B342" s="17"/>
       <c r="C342" s="18"/>
@@ -11478,12 +11041,8 @@
       <c r="E342" s="17"/>
       <c r="F342" s="29"/>
       <c r="K342" s="29"/>
-      <c r="L342" s="2" t="e">
-        <f>MATCH(A342,M:M,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="343" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="343" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A343" s="17" t="s">
         <v>62</v>
       </c>
@@ -11511,14 +11070,12 @@
       <c r="I343" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J343" s="47"/>
+      <c r="J343" s="29">
+        <v>1500</v>
+      </c>
       <c r="K343" s="29"/>
-      <c r="L343" s="2">
-        <f>MATCH(A343,M:M,0)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="344" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="344" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A344" s="28" t="s">
         <v>62</v>
       </c>
@@ -11540,16 +11097,12 @@
       <c r="G344" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H344" s="51"/>
+      <c r="H344" s="50"/>
       <c r="I344" s="29"/>
       <c r="J344" s="29"/>
       <c r="K344" s="29"/>
-      <c r="L344" s="2">
-        <f>MATCH(A344,M:M,0)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="345" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="345" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A345" s="28" t="s">
         <v>62</v>
       </c>
@@ -11571,16 +11124,12 @@
       <c r="G345" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H345" s="51"/>
+      <c r="H345" s="50"/>
       <c r="I345" s="29"/>
       <c r="J345" s="29"/>
       <c r="K345" s="29"/>
-      <c r="L345" s="2">
-        <f>MATCH(A345,M:M,0)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="346" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="346" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A346" s="28" t="s">
         <v>62</v>
       </c>
@@ -11608,12 +11157,8 @@
       <c r="I346" s="29"/>
       <c r="J346" s="29"/>
       <c r="K346" s="29"/>
-      <c r="L346" s="2">
-        <f>MATCH(A346,M:M,0)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="347" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="347" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A347" s="28" t="s">
         <v>62</v>
       </c>
@@ -11641,7 +11186,7 @@
       <c r="I347" s="30"/>
       <c r="K347" s="29"/>
     </row>
-    <row r="348" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A348" s="28" t="s">
         <v>62</v>
       </c>
@@ -11669,7 +11214,7 @@
       <c r="I348" s="42"/>
       <c r="K348" s="29"/>
     </row>
-    <row r="349" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A349" s="28" t="s">
         <v>62</v>
       </c>
@@ -11697,7 +11242,7 @@
       <c r="I349" s="42"/>
       <c r="K349" s="29"/>
     </row>
-    <row r="350" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A350" s="28" t="s">
         <v>62</v>
       </c>
@@ -11725,7 +11270,7 @@
       <c r="I350" s="42"/>
       <c r="K350" s="29"/>
     </row>
-    <row r="351" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A351" s="28" t="s">
         <v>62</v>
       </c>
@@ -11753,7 +11298,7 @@
       <c r="I351" s="42"/>
       <c r="K351" s="29"/>
     </row>
-    <row r="352" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A352" s="28" t="s">
         <v>62</v>
       </c>
@@ -11781,7 +11326,7 @@
       <c r="I352" s="42"/>
       <c r="K352" s="29"/>
     </row>
-    <row r="353" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A353" s="28" t="s">
         <v>62</v>
       </c>
@@ -11809,7 +11354,7 @@
       <c r="I353" s="42"/>
       <c r="K353" s="29"/>
     </row>
-    <row r="354" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A354" s="28" t="s">
         <v>62</v>
       </c>
@@ -11837,7 +11382,7 @@
       <c r="I354" s="42"/>
       <c r="K354" s="29"/>
     </row>
-    <row r="355" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A355" s="28" t="s">
         <v>62</v>
       </c>
@@ -11865,7 +11410,7 @@
       <c r="I355" s="42"/>
       <c r="K355" s="29"/>
     </row>
-    <row r="356" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A356" s="28" t="s">
         <v>62</v>
       </c>
@@ -11893,7 +11438,7 @@
       <c r="I356" s="42"/>
       <c r="K356" s="29"/>
     </row>
-    <row r="357" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A357" s="28" t="s">
         <v>62</v>
       </c>
@@ -11921,7 +11466,7 @@
       <c r="I357" s="42"/>
       <c r="K357" s="29"/>
     </row>
-    <row r="358" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A358" s="28" t="s">
         <v>62</v>
       </c>
@@ -11949,7 +11494,7 @@
       <c r="I358" s="42"/>
       <c r="K358" s="29"/>
     </row>
-    <row r="359" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A359" s="28" t="s">
         <v>62</v>
       </c>
@@ -11977,7 +11522,7 @@
       <c r="I359" s="42"/>
       <c r="K359" s="29"/>
     </row>
-    <row r="360" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A360" s="28" t="s">
         <v>62</v>
       </c>
@@ -12005,7 +11550,7 @@
       <c r="I360" s="42"/>
       <c r="K360" s="29"/>
     </row>
-    <row r="361" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A361" s="28" t="s">
         <v>62</v>
       </c>
@@ -12033,7 +11578,7 @@
       <c r="I361" s="42"/>
       <c r="K361" s="29"/>
     </row>
-    <row r="362" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A362" s="28" t="s">
         <v>62</v>
       </c>
@@ -12061,7 +11606,7 @@
       <c r="I362" s="42"/>
       <c r="K362" s="29"/>
     </row>
-    <row r="363" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A363" s="28" t="s">
         <v>62</v>
       </c>
@@ -12089,7 +11634,7 @@
       <c r="I363" s="42"/>
       <c r="K363" s="29"/>
     </row>
-    <row r="364" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A364" s="28" t="s">
         <v>62</v>
       </c>
@@ -12117,7 +11662,7 @@
       <c r="I364" s="42"/>
       <c r="K364" s="29"/>
     </row>
-    <row r="365" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A365" s="28" t="s">
         <v>62</v>
       </c>
@@ -12145,7 +11690,7 @@
       <c r="I365" s="42"/>
       <c r="K365" s="29"/>
     </row>
-    <row r="366" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A366" s="28" t="s">
         <v>62</v>
       </c>
@@ -12173,7 +11718,7 @@
       <c r="I366" s="42"/>
       <c r="K366" s="29"/>
     </row>
-    <row r="367" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A367" s="28" t="s">
         <v>62</v>
       </c>
@@ -12201,7 +11746,7 @@
       <c r="I367" s="42"/>
       <c r="K367" s="29"/>
     </row>
-    <row r="368" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A368" s="28" t="s">
         <v>62</v>
       </c>
@@ -12229,7 +11774,7 @@
       <c r="I368" s="42"/>
       <c r="K368" s="29"/>
     </row>
-    <row r="369" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A369" s="28" t="s">
         <v>62</v>
       </c>
@@ -12256,9 +11801,8 @@
       </c>
       <c r="I369" s="42"/>
       <c r="K369" s="29"/>
-      <c r="L369" s="30"/>
-    </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A370" s="17"/>
       <c r="B370" s="17"/>
       <c r="C370" s="18"/>
@@ -12267,12 +11811,8 @@
       <c r="F370" s="29"/>
       <c r="G370" s="29"/>
       <c r="H370" s="30"/>
-      <c r="L370" s="2" t="e">
-        <f>MATCH(A370,M:M,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="371" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="371" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A371" s="17" t="s">
         <v>63</v>
       </c>
@@ -12286,8 +11826,8 @@
         <v>3</v>
       </c>
       <c r="E371"/>
-      <c r="F371" s="47">
-        <v>14875</v>
+      <c r="F371" s="29">
+        <v>13987</v>
       </c>
       <c r="G371" s="39"/>
       <c r="H371" s="39"/>
@@ -12295,12 +11835,8 @@
         <v>14</v>
       </c>
       <c r="J371" s="29"/>
-      <c r="L371" s="2">
-        <f>MATCH(A371,M:M,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="372" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="372" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
         <v>64</v>
       </c>
@@ -12314,19 +11850,15 @@
         <v>3</v>
       </c>
       <c r="E372"/>
-      <c r="F372" s="47">
-        <v>14879</v>
+      <c r="F372" s="29">
+        <v>13280</v>
       </c>
       <c r="G372" s="39"/>
       <c r="H372" s="43"/>
       <c r="I372" s="29"/>
       <c r="J372" s="29"/>
-      <c r="L372" s="2">
-        <f>MATCH(A372,M:M,0)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A373" s="17"/>
       <c r="B373" s="17"/>
       <c r="C373" s="18"/>
@@ -12337,12 +11869,8 @@
       <c r="H373" s="43"/>
       <c r="I373" s="29"/>
       <c r="J373" s="29"/>
-      <c r="L373" s="2" t="e">
-        <f>MATCH(A373,M:M,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A374" s="17"/>
       <c r="B374" s="17"/>
       <c r="C374" s="17"/>
@@ -12354,7 +11882,7 @@
       <c r="I374" s="29"/>
       <c r="J374" s="29"/>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A375" s="17"/>
       <c r="B375" s="17"/>
       <c r="C375" s="17"/>
@@ -12365,7 +11893,7 @@
       <c r="H375" s="35"/>
       <c r="I375" s="30"/>
     </row>
-    <row r="376" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A376" s="17"/>
       <c r="B376" s="17"/>
       <c r="C376" s="17"/>
@@ -12376,7 +11904,7 @@
       <c r="H376" s="44"/>
       <c r="I376" s="42"/>
     </row>
-    <row r="377" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A377" s="17"/>
       <c r="B377" s="17"/>
       <c r="C377" s="17"/>
@@ -12387,7 +11915,7 @@
       <c r="H377" s="44"/>
       <c r="I377" s="42"/>
     </row>
-    <row r="378" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A378" s="17"/>
       <c r="B378" s="17"/>
       <c r="C378" s="17"/>
@@ -12398,97 +11926,97 @@
       <c r="H378" s="44"/>
       <c r="I378" s="42"/>
     </row>
-    <row r="379" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="G379" s="30"/>
       <c r="H379" s="44"/>
       <c r="I379" s="42"/>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G380" s="30"/>
       <c r="H380" s="35"/>
       <c r="I380" s="42"/>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G381" s="30"/>
       <c r="H381" s="35"/>
       <c r="I381" s="42"/>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G382" s="30"/>
       <c r="H382" s="35"/>
       <c r="I382" s="42"/>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G383" s="30"/>
       <c r="H383" s="35"/>
       <c r="I383" s="42"/>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G384" s="30"/>
       <c r="H384" s="35"/>
       <c r="I384" s="42"/>
     </row>
-    <row r="385" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="385" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G385" s="30"/>
       <c r="H385" s="35"/>
       <c r="I385" s="42"/>
     </row>
-    <row r="386" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="386" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G386" s="30"/>
       <c r="H386" s="35"/>
       <c r="I386" s="42"/>
     </row>
-    <row r="387" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="387" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G387" s="30"/>
       <c r="H387" s="35"/>
       <c r="I387" s="42"/>
     </row>
-    <row r="388" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="388" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G388" s="30"/>
       <c r="H388" s="35"/>
       <c r="I388" s="42"/>
     </row>
-    <row r="389" spans="7:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="389" spans="7:9" ht="15" x14ac:dyDescent="0.2">
       <c r="G389" s="30"/>
       <c r="H389" s="44"/>
       <c r="I389" s="42"/>
     </row>
-    <row r="390" spans="7:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="390" spans="7:9" ht="15" x14ac:dyDescent="0.2">
       <c r="G390" s="30"/>
       <c r="H390" s="44"/>
       <c r="I390" s="42"/>
     </row>
-    <row r="391" spans="7:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="391" spans="7:9" ht="15" x14ac:dyDescent="0.2">
       <c r="G391" s="30"/>
       <c r="H391" s="44"/>
       <c r="I391" s="42"/>
     </row>
-    <row r="392" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="392" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G392" s="30"/>
       <c r="H392" s="35"/>
       <c r="I392" s="42"/>
     </row>
-    <row r="393" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="393" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G393" s="30"/>
       <c r="H393" s="35"/>
       <c r="I393" s="42"/>
     </row>
-    <row r="394" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="394" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G394" s="30"/>
       <c r="H394" s="35"/>
       <c r="I394" s="42"/>
     </row>
-    <row r="395" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="395" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G395" s="30"/>
       <c r="H395" s="35"/>
       <c r="I395" s="42"/>
     </row>
-    <row r="396" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="396" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G396" s="30"/>
       <c r="H396" s="35"/>
       <c r="I396" s="42"/>
     </row>
-    <row r="397" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="397" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G397" s="30"/>
       <c r="H397" s="35"/>
       <c r="I397" s="42"/>
@@ -12496,10 +12024,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>